--- a/Excel-XLSX/UN-AZE.xlsx
+++ b/Excel-XLSX/UN-AZE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="545">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>hY22cU</t>
+    <t>8v8IjQ</t>
   </si>
   <si>
     <t>1992</t>
@@ -1611,12 +1611,15 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1106</t>
+    <t>1080</t>
   </si>
   <si>
     <t>311</t>
   </si>
   <si>
+    <t>655212</t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
@@ -1641,7 +1644,7 @@
     <t>320</t>
   </si>
   <si>
-    <t>6541</t>
+    <t>4906</t>
   </si>
   <si>
     <t>321</t>
@@ -23167,7 +23170,7 @@
         <v>32</v>
       </c>
       <c r="P311" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q311" s="2" t="s">
         <v>32</v>
@@ -23179,7 +23182,7 @@
         <v>32</v>
       </c>
       <c r="T311" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="U311" s="1" t="s">
         <v>33</v>
@@ -23238,7 +23241,7 @@
         <v>32</v>
       </c>
       <c r="Q312" s="2" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="R312" s="2" t="s">
         <v>32</v>
@@ -23267,7 +23270,7 @@
         <v>22</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>530</v>
@@ -23335,7 +23338,7 @@
         <v>22</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>530</v>
@@ -23403,7 +23406,7 @@
         <v>22</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>530</v>
@@ -23471,7 +23474,7 @@
         <v>22</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>530</v>
@@ -23539,7 +23542,7 @@
         <v>22</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>530</v>
@@ -23569,10 +23572,10 @@
         <v>30</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P317" s="2" t="s">
         <v>32</v>
@@ -23637,7 +23640,7 @@
         <v>30</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="O318" s="2" t="s">
         <v>32</v>
@@ -23675,7 +23678,7 @@
         <v>22</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>530</v>
@@ -23720,7 +23723,7 @@
         <v>32</v>
       </c>
       <c r="S319" s="2" t="s">
-        <v>524</v>
+        <v>478</v>
       </c>
       <c r="T319" s="2" t="s">
         <v>32</v>
@@ -23743,7 +23746,7 @@
         <v>22</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>530</v>
@@ -23811,7 +23814,7 @@
         <v>22</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>530</v>
@@ -23841,10 +23844,10 @@
         <v>30</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="P321" s="2" t="s">
         <v>32</v>
@@ -23879,7 +23882,7 @@
         <v>22</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>530</v>
@@ -23947,7 +23950,7 @@
         <v>22</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>530</v>
@@ -23977,7 +23980,7 @@
         <v>30</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O323" s="2" t="s">
         <v>32</v>
